--- a/Resources/TestData/Old/qat02.xlsx
+++ b/Resources/TestData/Old/qat02.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="126">
   <si>
     <t>TC_NO</t>
   </si>
@@ -135,12 +135,6 @@
     <t>006_CC_REG_RES_FCOM_Man_MyProfile-LinkAccount</t>
   </si>
   <si>
-    <t>81398647071107145</t>
-  </si>
-  <si>
-    <t>9191</t>
-  </si>
-  <si>
     <t>TC06</t>
   </si>
   <si>
@@ -168,12 +162,6 @@
     <t>016_CC_.COM_archive_REG_RES_FCOM_Man_ECOMM_InternetHOPUpgrade</t>
   </si>
   <si>
-    <t>Ftrfrank1+ecomauto@gmail.com</t>
-  </si>
-  <si>
-    <t>813-689-5758-092074-5 JOYCE T.</t>
-  </si>
-  <si>
     <t>TC10</t>
   </si>
   <si>
@@ -189,9 +177,6 @@
     <t>727-121-3162-021213-5 PATRICIA C.</t>
   </si>
   <si>
-    <t>Order #070480784</t>
-  </si>
-  <si>
     <t>TC11</t>
   </si>
   <si>
@@ -403,6 +388,18 @@
   </si>
   <si>
     <t>005_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_UltimateVideoPackage</t>
+  </si>
+  <si>
+    <t>21946240630331005</t>
+  </si>
+  <si>
+    <t>5050</t>
+  </si>
+  <si>
+    <t>Ftrfrank1+remedyticket@gmail.com</t>
+  </si>
+  <si>
+    <t>210-023-1679-051407-5 JOANN S.</t>
   </si>
 </sst>
 </file>
@@ -860,10 +857,10 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,7 +878,7 @@
     <col min="11" max="11" width="16.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="31.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" style="11" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.7109375" style="11" bestFit="1" customWidth="1"/>
@@ -1103,7 +1100,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>23</v>
@@ -1115,19 +1112,19 @@
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>19</v>
@@ -1138,8 +1135,8 @@
       <c r="E7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>113</v>
+      <c r="F7" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>23</v>
@@ -1153,16 +1150,16 @@
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="15" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>19</v>
@@ -1192,16 +1189,16 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>21</v>
@@ -1225,10 +1222,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>19</v>
@@ -1240,13 +1237,13 @@
         <v>21</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -1260,28 +1257,28 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>54</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -1291,16 +1288,14 @@
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
       <c r="P11" s="15"/>
-      <c r="Q11" s="13" t="s">
-        <v>55</v>
-      </c>
+      <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>19</v>
@@ -1345,10 +1340,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>19</v>
@@ -1360,7 +1355,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G14" s="22" t="s">
         <v>23</v>
@@ -1378,10 +1373,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>19</v>
@@ -1393,7 +1388,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>23</v>
@@ -1411,10 +1406,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>19</v>
@@ -1426,7 +1421,7 @@
         <v>21</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G16" s="22" t="s">
         <v>23</v>
@@ -1444,10 +1439,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>19</v>
@@ -1459,7 +1454,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G17" s="22" t="s">
         <v>23</v>
@@ -1477,10 +1472,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>19</v>
@@ -1492,7 +1487,7 @@
         <v>21</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>23</v>
@@ -1510,7 +1505,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -1531,7 +1526,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -1552,7 +1547,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -1573,7 +1568,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1594,7 +1589,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -1615,7 +1610,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -1636,7 +1631,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -1657,7 +1652,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -1678,7 +1673,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -1707,21 +1702,20 @@
     <hyperlink ref="D11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="F11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="D12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D14" r:id="rId9" xr:uid="{21BE66A9-6327-498E-8C2B-7FE2E11ADD59}"/>
-    <hyperlink ref="F14" r:id="rId10" xr:uid="{12E2B49E-1545-4672-B4A6-DEB308365455}"/>
-    <hyperlink ref="D15" r:id="rId11" xr:uid="{9EBBF634-8706-4A3F-B35D-4E439A536F07}"/>
-    <hyperlink ref="F15" r:id="rId12" xr:uid="{1EAE3C99-A8B6-4606-9E0F-3F30F1A974E1}"/>
-    <hyperlink ref="D16" r:id="rId13" xr:uid="{3BF6D693-1A70-4082-AA38-B89E5A7E3D1E}"/>
-    <hyperlink ref="F16" r:id="rId14" xr:uid="{BB5D3DA6-CFF2-41F1-9364-ACCECDFA487D}"/>
-    <hyperlink ref="D17" r:id="rId15" xr:uid="{E5B91846-B0A7-4689-8939-6B633CD433E1}"/>
-    <hyperlink ref="F17" r:id="rId16" xr:uid="{27A838A4-C4AB-469F-92BD-B56F89856E93}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{339F8C4E-F6A1-496F-8C6F-34444D3A3D27}"/>
-    <hyperlink ref="F18" r:id="rId18" xr:uid="{B47F81F5-8E63-4013-B98A-3DCC7EF34CE2}"/>
-    <hyperlink ref="F6" r:id="rId19" xr:uid="{52A9BBB6-CAE6-4928-9972-967343C1336A}"/>
-    <hyperlink ref="F7" r:id="rId20" xr:uid="{1C6D621C-264E-4007-9604-18483D740414}"/>
+    <hyperlink ref="D14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F6" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -1769,7 +1763,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>19</v>
@@ -1786,7 +1780,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>19</v>
@@ -1803,7 +1797,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>19</v>
@@ -1820,7 +1814,7 @@
         <v>33</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>19</v>
@@ -1837,7 +1831,7 @@
         <v>35</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>19</v>
@@ -1851,10 +1845,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>19</v>
@@ -1868,10 +1862,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>19</v>
@@ -1885,10 +1879,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>19</v>
@@ -1902,10 +1896,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>19</v>
@@ -1919,10 +1913,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>19</v>
@@ -1936,10 +1930,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>19</v>
@@ -1953,10 +1947,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>19</v>
@@ -1970,10 +1964,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>19</v>
@@ -1987,10 +1981,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>19</v>
@@ -2004,10 +1998,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>19</v>
@@ -2021,10 +2015,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>19</v>
@@ -2038,10 +2032,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D16" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D17" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{2243F20E-836A-44C8-A7E8-FEF69ED0BABA}"/>
-    <hyperlink ref="D2" r:id="rId4" xr:uid="{4A26EF29-4866-422F-8BC1-B340F7348B64}"/>
+    <hyperlink ref="D16" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D17" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -2099,16 +2093,16 @@
         <v>6</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2116,7 +2110,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
@@ -2130,16 +2124,16 @@
       <c r="F2" s="7"/>
       <c r="G2" s="5"/>
       <c r="H2" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2147,7 +2141,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
@@ -2170,7 +2164,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
@@ -2197,7 +2191,7 @@
         <v>33</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
@@ -2220,7 +2214,7 @@
         <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>19</v>
@@ -2240,10 +2234,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>19</v>
@@ -2263,10 +2257,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>19</v>
@@ -2286,10 +2280,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>19</v>
@@ -2309,10 +2303,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>19</v>
@@ -2350,16 +2344,16 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:E1048576"/>
+      <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="11" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="11" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="11" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="6.7109375" style="11" customWidth="1"/>
     <col min="8" max="16384" width="6.7109375" style="11"/>
   </cols>
@@ -2386,7 +2380,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>19</v>
@@ -2403,7 +2397,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>19</v>
@@ -2420,7 +2414,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>19</v>
@@ -2437,7 +2431,7 @@
         <v>33</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>19</v>
@@ -2454,7 +2448,7 @@
         <v>35</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>19</v>
@@ -2468,10 +2462,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>19</v>
@@ -2485,10 +2479,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>19</v>
@@ -2502,10 +2496,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>19</v>
@@ -2519,10 +2513,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>19</v>
@@ -2536,10 +2530,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>19</v>
@@ -2553,10 +2547,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>19</v>
@@ -2570,10 +2564,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>19</v>
@@ -2587,10 +2581,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>19</v>
@@ -2604,10 +2598,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>19</v>
@@ -2621,10 +2615,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>19</v>
@@ -2638,10 +2632,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>19</v>
